--- a/data/trans_bre/P1802_2016_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Clase-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.734729817774131</v>
+        <v>-5.901819791218711</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.405718950278953</v>
+        <v>1.361791473465815</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.3189442297234585</v>
+        <v>-0.3182268460971922</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.0713657682661432</v>
+        <v>0.06972621209815294</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.887231801260498</v>
+        <v>5.011338234143757</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.6189445008584</v>
+        <v>10.28799117294472</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3747077740483898</v>
+        <v>0.3803075312596501</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7526841023741769</v>
+        <v>0.7305420280801128</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>4.913621588641427</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.924564388106919</v>
+        <v>4.924564388106923</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.3947163671477174</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.3218774774458034</v>
+        <v>0.3218774774458036</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2825264895760087</v>
+        <v>-0.6981419550463908</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1739116639944802</v>
+        <v>0.4817094255110106</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02385082688485042</v>
+        <v>-0.0574801289452936</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.000436077010280265</v>
+        <v>0.02196270171425193</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.55022755753685</v>
+        <v>10.45051382021412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.276254952354835</v>
+        <v>9.740074633619503</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.06853539542245</v>
+        <v>1.048227109065233</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7205560531089743</v>
+        <v>0.7530192693911938</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>9.082495795246182</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.269341363499284</v>
+        <v>6.269341363499289</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.5880730633440725</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.4119296856818288</v>
+        <v>0.4119296856818293</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.170059319248751</v>
+        <v>1.963980126700146</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.42009340422422</v>
+        <v>0.3013344558573716</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1256165271693412</v>
+        <v>0.1134706586324312</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.03580252204593427</v>
+        <v>0.007869842377689572</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.74160682687713</v>
+        <v>17.34441416526695</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.94718809967357</v>
+        <v>12.6564244856075</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.234984036214028</v>
+        <v>1.245968188726216</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.9708210876693678</v>
+        <v>0.9350550837983688</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.897348319549909</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.155206253883994</v>
+        <v>4.155206253883992</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2537780092925445</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.2415115868767256</v>
+        <v>0.2415115868767255</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6679383812434667</v>
+        <v>0.1279501647230388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.613227707136639</v>
+        <v>0.4994626625356861</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03825406982282888</v>
+        <v>0.01159884480061366</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02970352252641208</v>
+        <v>0.02516529819611225</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.617953446089781</v>
+        <v>7.555322881601175</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.246223481537946</v>
+        <v>7.11289662674541</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.564978247041788</v>
+        <v>0.5565384763284508</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4690440195678427</v>
+        <v>0.4486780383647263</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.974855451107474</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.008841628014786</v>
+        <v>4.008841628014798</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.3574365173427473</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2807236495003245</v>
+        <v>0.2807236495003254</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.141860721382798</v>
+        <v>0.8344293469486138</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2942259656083683</v>
+        <v>0.2333066208716736</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.07618144706447941</v>
+        <v>0.0502980666058215</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.01300329792319893</v>
+        <v>-0.0003344141167117109</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.42203738988024</v>
+        <v>8.746812940227194</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.89555864303339</v>
+        <v>7.474313758302256</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.8275525352436336</v>
+        <v>0.7635739085843547</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6728480215118202</v>
+        <v>0.6274604404518482</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>9.67008284061378</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>9.418624614250334</v>
+        <v>9.418624614250337</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.9783326910122949</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.208508945410322</v>
+        <v>2.208508945410323</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.970265637403958</v>
+        <v>4.979482203739063</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.107540199616365</v>
+        <v>4.960949155454567</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3673070721376298</v>
+        <v>0.3722265393277698</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5517723860514071</v>
+        <v>0.5503815282110727</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.63092886075325</v>
+        <v>13.57534767955706</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.91220794610501</v>
+        <v>12.4448021880605</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.995295453287186</v>
+        <v>1.907939505563476</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>7.329729906428831</v>
+        <v>6.715566371729297</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.697281624424628</v>
+        <v>2.847854234798675</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.077243328178159</v>
+        <v>1.951319583025006</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1739023363944162</v>
+        <v>0.1892821442616556</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1226650359465701</v>
+        <v>0.1201294313852579</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.382744459044912</v>
+        <v>6.491314684555036</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.439464969653128</v>
+        <v>5.362329330434516</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.4697470485758684</v>
+        <v>0.4833000633434298</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3813489369116896</v>
+        <v>0.3789988386268524</v>
       </c>
     </row>
     <row r="25">
